--- a/techniqo/data_new_ticker/ELGIEQUIP.xlsx
+++ b/techniqo/data_new_ticker/ELGIEQUIP.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1406"/>
+  <dimension ref="A1:G1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49596,6 +49596,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1407" t="n">
+        <v>239.85</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>239.85</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>220.55</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>58466</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1408" t="n">
+        <v>235.35</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>242</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>235</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>237.7</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>58422</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ELGIEQUIP.xlsx
+++ b/techniqo/data_new_ticker/ELGIEQUIP.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1408"/>
+  <dimension ref="A1:G1410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49646,6 +49646,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1409" t="n">
+        <v>237</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>236</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>239.9</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>171662</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1410" t="n">
+        <v>242</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>242</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>239</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>240.2</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>119312</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
